--- a/auto-offices/files/merge-total.xlsx
+++ b/auto-offices/files/merge-total.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView windowWidth="24520" windowHeight="13140"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
   <si>
     <t>姓名</t>
   </si>
@@ -35,6 +32,27 @@
   </si>
   <si>
     <t>第6题</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>王五</t>
   </si>
 </sst>
 </file>
@@ -990,98 +1008,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="2C7EE24B-C535-494D-AA97-0A61EE84BA40">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" x14ac:dyDescent="0.25" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+    <row r="2" x14ac:dyDescent="0.25" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+    <row r="3" x14ac:dyDescent="0.25" spans="1:7">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+    <row r="4" x14ac:dyDescent="0.25" spans="1:7">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>